--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros teste.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros teste.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4141975674418994</v>
+        <v>0.3947781580821399</v>
       </c>
       <c r="C11" t="n">
-        <v>1.482787822247361</v>
+        <v>1.412241694257344</v>
       </c>
       <c r="D11" t="n">
-        <v>2.188893565156337</v>
+        <v>2.201938267785212</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros teste.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros teste.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3947781580821399</v>
+        <v>0.3994344931980132</v>
       </c>
       <c r="C11" t="n">
-        <v>1.412241694257344</v>
+        <v>1.444241812290475</v>
       </c>
       <c r="D11" t="n">
-        <v>2.201938267785212</v>
+        <v>2.224558175243957</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros teste.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros teste.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3994344931980132</v>
+        <v>0.4210062357980793</v>
       </c>
       <c r="C11" t="n">
-        <v>1.444241812290475</v>
+        <v>1.503631737899857</v>
       </c>
       <c r="D11" t="n">
-        <v>2.224558175243957</v>
+        <v>2.364230416916655</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros teste.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros teste.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4210062357980793</v>
+        <v>0.3811429923016634</v>
       </c>
       <c r="C11" t="n">
-        <v>1.503631737899857</v>
+        <v>1.364072900287832</v>
       </c>
       <c r="D11" t="n">
-        <v>2.364230416916655</v>
+        <v>2.06376818590593</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros teste.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros teste.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3811429923016634</v>
+        <v>0.4057334430763066</v>
       </c>
       <c r="C11" t="n">
-        <v>1.364072900287832</v>
+        <v>1.46797524997825</v>
       </c>
       <c r="D11" t="n">
-        <v>2.06376818590593</v>
+        <v>2.232059349393899</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros teste.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros teste.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4057334430763066</v>
+        <v>0.4294089613689884</v>
       </c>
       <c r="C11" t="n">
-        <v>1.46797524997825</v>
+        <v>1.524200731860457</v>
       </c>
       <c r="D11" t="n">
-        <v>2.232059349393899</v>
+        <v>2.483016482554597</v>
       </c>
     </row>
     <row r="12">
